--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R5701d77557c847dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rdb7fce2dc39842bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rdb7fce2dc39842bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rb5132c9a72f54d76"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rb5132c9a72f54d76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R19895f88fd41437c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R19895f88fd41437c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rc7d676bc1b2d4f62"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rc7d676bc1b2d4f62"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R1920f59a18be4558"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R1920f59a18be4558"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rc7753c3c741f440c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rc7753c3c741f440c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R754c6ad6b7734f2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R754c6ad6b7734f2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rdffaaf3ff7124ca8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rdffaaf3ff7124ca8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R6f510e82834d4c75"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R6f510e82834d4c75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Ra01af8d2b06b4949"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Ra01af8d2b06b4949"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rb37bc6fae4764451"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="Rb37bc6fae4764451"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R81066b8c68384169"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/086_ColumnHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R81066b8c68384169"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenColumns" sheetId="1" r:id="R5a82dc0e78b249c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
